--- a/DongAERP/Content/Report/ReportHSDetailt/ReportHSDetailtLHTypeCompareMonth.xlsx
+++ b/DongAERP/Content/Report/ReportHSDetailt/ReportHSDetailtLHTypeCompareMonth.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DongAERP\DongAERP\Content\Report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DongAERP\DongAERP\Content\Report\ReportHSDetailt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B6AD124-C18A-44B9-BA78-C8014F4BD1FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBBC5F38-A66C-408D-BE28-487CDB913C13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FDADBC8A-6B6C-45FD-98E5-87326587A42E}"/>
   </bookViews>
@@ -33,18 +33,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Tổng</t>
   </si>
   <si>
     <t>Chuyển khoản</t>
-  </si>
-  <si>
-    <t>Đơn vị</t>
-  </si>
-  <si>
-    <t>USD</t>
   </si>
   <si>
     <t>Chi Nhà</t>
@@ -53,7 +47,7 @@
     <t>Chi Quầy</t>
   </si>
   <si>
-    <t>BÁO CÁO CHI TIẾT - DOANH SỐ CHI TRẢ THEO THỊ TRƯỜNG - LOẠI HÌNH CHI TRẢ</t>
+    <t>BÁO CÁO CHI TIẾT - HỒ SƠ CHI TRẢ THEO THỊ TRƯỜNG - LOẠI HÌNH CHI TRẢ</t>
   </si>
 </sst>
 </file>
@@ -491,8 +485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C3B6D35-F82E-4989-A479-5B01F28891A5}">
   <dimension ref="A1:AA62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:K2"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M60" sqref="M60:N60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -522,7 +516,7 @@
   <sheetData>
     <row r="1" spans="1:27" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="15" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -1267,22 +1261,17 @@
       <c r="T41" s="5"/>
     </row>
     <row r="60" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="M60" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N60" t="s">
-        <v>3</v>
-      </c>
+      <c r="M60" s="1"/>
     </row>
     <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="17"/>
       <c r="C61" s="18" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D61" s="18"/>
       <c r="E61" s="18"/>
       <c r="F61" s="18" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G61" s="18"/>
       <c r="H61" s="18"/>
@@ -1314,13 +1303,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="L61:N61"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
     <mergeCell ref="B61:B62"/>
     <mergeCell ref="C61:E61"/>
     <mergeCell ref="F61:H61"/>
     <mergeCell ref="I61:K61"/>
-    <mergeCell ref="L61:N61"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
